--- a/Data/N_Results.xlsx
+++ b/Data/N_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707"/>
+    <workbookView windowWidth="12431" windowHeight="5915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+  <si>
+    <t>Indices</t>
+  </si>
   <si>
     <t>Treatment</t>
   </si>
@@ -39,33 +42,24 @@
     <t>SE</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
     <t>asymp.LCL</t>
   </si>
   <si>
     <t>asymp.UCL</t>
   </si>
   <si>
-    <t>.group</t>
-  </si>
-  <si>
-    <t>Indices</t>
+    <t>Sidak group</t>
+  </si>
+  <si>
+    <t>Abundance</t>
   </si>
   <si>
     <t>Positive control</t>
   </si>
   <si>
-    <t>Inf</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>Abundance</t>
-  </si>
-  <si>
     <t>Negative control</t>
   </si>
   <si>
@@ -87,33 +81,61 @@
     <t>Richness</t>
   </si>
   <si>
-    <t xml:space="preserve">         Treatment    emmean         SE  df  lower.CL  upper.CL .group Indices</t>
-  </si>
-  <si>
-    <t>5          Burning 0.3606508 0.04728368 294 0.2384007 0.4829010      a Shannon</t>
-  </si>
-  <si>
-    <t>4        Herbicide 0.3731328 0.04728368 294 0.2508826 0.4953830      a Shannon</t>
-  </si>
-  <si>
-    <t>1 Positive control 0.3835005 0.04728368 294 0.2612503 0.5057506      a Shannon</t>
-  </si>
-  <si>
-    <t>2 Negative control 0.4131004 0.04728368 294 0.2908502 0.5353505      a Shannon</t>
-  </si>
-  <si>
-    <t>3         Slashing 0.5231712 0.04728368 294 0.4009210 0.6454213      a Shannon</t>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Margalef</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Infestation_gradient</t>
+  </si>
+  <si>
+    <t>Ahor-Urokosa</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Iguegosagie</t>
+  </si>
+  <si>
+    <t>Iguovbiobo</t>
+  </si>
+  <si>
+    <t>Ogua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -718,8 +740,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,340 +1280,561 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667"/>
-    <col min="4" max="6" width="11.7777777777778"/>
-    <col min="7" max="9" width="9.66666666666667"/>
+    <col min="3" max="3" width="9.66666666666667" style="1"/>
+    <col min="4" max="5" width="11.7777777777778" style="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1"/>
+    <col min="7" max="8" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.72875</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.03271224</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1">
+        <v>2.64472</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.81278</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>2.64472</v>
-      </c>
-      <c r="G2">
-        <v>2.81278</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C3" s="1">
+        <v>3.134569</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.02676503</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.065816</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.203322</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>3.134569</v>
-      </c>
-      <c r="D3">
-        <v>0.02676503</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" s="1">
+        <v>2.714868</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.03293813</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.630258</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.799479</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>3.065816</v>
-      </c>
-      <c r="G3">
-        <v>3.203322</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C5" s="1">
+        <v>2.46861</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.0372178</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.373007</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.564214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.228915</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.02554839</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.163287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.294542</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>2.714868</v>
-      </c>
-      <c r="D4">
-        <v>0.03293813</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>2.630258</v>
-      </c>
-      <c r="G4">
-        <v>2.799479</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>2.46861</v>
-      </c>
-      <c r="D5">
-        <v>0.0372178</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>2.373007</v>
-      </c>
-      <c r="G5">
-        <v>2.564214</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>3.228915</v>
-      </c>
-      <c r="D6">
-        <v>0.02554839</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>3.163287</v>
-      </c>
-      <c r="G6">
-        <v>3.294542</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.7626345</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.08808823</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1">
         <v>0.5363567</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1">
         <v>0.9889123</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.9842264</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.07886021</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.7816532</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.1867996</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.9590679</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.07985773</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.7539323</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.1642035</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.7703565</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.08774952</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5449488</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.9957643</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.9000344</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.08224714</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.6887609</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.1113078</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.3606508</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.04728368</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2384007</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.482901</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.3731328</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.04728368</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2508826</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.495383</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.3835005</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.04728368</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.2612503</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5057506</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.4131004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.04728368</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.2908502</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5353505</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.5231712</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.04728368</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.400921</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.6454213</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1894686</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.02618242</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.1217749</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.2571622</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.2054954</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.02618242</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1378017</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.273189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.210781</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.02618242</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.1430873</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.2784746</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.2271649</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.02618242</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.1594712</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.2948585</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>0.9842264</v>
-      </c>
-      <c r="D8">
-        <v>0.07886021</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>0.7816532</v>
-      </c>
-      <c r="G8">
-        <v>1.1867996</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C21" s="1">
+        <v>0.2893966</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.02618242</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.2217029</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.3570902</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>0.9590679</v>
-      </c>
-      <c r="D9">
-        <v>0.07985773</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>0.7539323</v>
-      </c>
-      <c r="G9">
-        <v>1.1642035</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5292055</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.06441425</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.3626574</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.6957535</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.6003703</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.06441425</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.4338223</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.7669183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.6801687</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.06441425</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5136207</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.8467168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.5268135</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.06552021</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.357406</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.6962211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>0.7703565</v>
-      </c>
-      <c r="D10">
-        <v>0.08774952</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>0.5449488</v>
-      </c>
-      <c r="G10">
-        <v>0.9957643</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.9000344</v>
-      </c>
-      <c r="D11">
-        <v>0.08224714</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>0.6887609</v>
-      </c>
-      <c r="G11">
-        <v>1.1113078</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
+      <c r="C26" s="1">
+        <v>0.5303674</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.06441425</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.3638193</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.6969154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I6">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1597,53 +1843,669 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="10.6666666666667"/>
-    <col min="4" max="6" width="11.7777777777778"/>
-    <col min="7" max="9" width="10.6666666666667"/>
+    <col min="1" max="6" width="10.6666666666667"/>
+    <col min="7" max="7" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0.6514332</v>
+      </c>
+      <c r="E2">
+        <v>0.2131191</v>
+      </c>
+      <c r="F2">
+        <v>3.221691</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>1.4892204</v>
+      </c>
+      <c r="E3">
+        <v>0.4950301</v>
+      </c>
+      <c r="F3">
+        <v>5.563455</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1.8728131</v>
+      </c>
+      <c r="E4">
+        <v>0.6163805</v>
+      </c>
+      <c r="F4">
+        <v>6.848563</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>2.1575267</v>
+      </c>
+      <c r="E5">
+        <v>0.7481184</v>
+      </c>
+      <c r="F5">
+        <v>6.271139</v>
+      </c>
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>2.6888726</v>
+      </c>
+      <c r="E6">
+        <v>0.8699131</v>
+      </c>
+      <c r="F6">
+        <v>6.952506</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>2.3432148</v>
+      </c>
+      <c r="E7">
+        <v>0.7814845</v>
+      </c>
+      <c r="F7">
+        <v>7.247074</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.7884749</v>
+      </c>
+      <c r="E8">
+        <v>0.2541578</v>
+      </c>
+      <c r="F8">
+        <v>4.211169</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1.2304508</v>
+      </c>
+      <c r="E9">
+        <v>0.4241651</v>
+      </c>
+      <c r="F9">
+        <v>4.068887</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1.1388937</v>
+      </c>
+      <c r="E10">
+        <v>0.3810675</v>
+      </c>
+      <c r="F10">
+        <v>5.443507</v>
+      </c>
+      <c r="G10">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2.8684601</v>
+      </c>
+      <c r="E11">
+        <v>0.8983082</v>
+      </c>
+      <c r="F11">
+        <v>8.118656</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>2.7632834</v>
+      </c>
+      <c r="E12">
+        <v>0.882069</v>
+      </c>
+      <c r="F12">
+        <v>7.054822</v>
+      </c>
+      <c r="G12">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2.9508221</v>
+      </c>
+      <c r="E13">
+        <v>0.8995199</v>
+      </c>
+      <c r="F13">
+        <v>8.476418</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>2.0478795</v>
+      </c>
+      <c r="E14">
+        <v>0.7007276</v>
+      </c>
+      <c r="F14">
+        <v>5.05788</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>2.0097956</v>
+      </c>
+      <c r="E15">
+        <v>0.7557791</v>
+      </c>
+      <c r="F15">
+        <v>4.616605</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>1.0765387</v>
+      </c>
+      <c r="E16">
+        <v>0.3594848</v>
+      </c>
+      <c r="F16">
+        <v>5.484187</v>
+      </c>
+      <c r="G16">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>2.485551</v>
+      </c>
+      <c r="E17">
+        <v>0.8338076</v>
+      </c>
+      <c r="F17">
+        <v>7.411494</v>
+      </c>
+      <c r="G17">
+        <v>47</v>
+      </c>
+      <c r="H17">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>2.7264254</v>
+      </c>
+      <c r="E18">
+        <v>0.8680183</v>
+      </c>
+      <c r="F18">
+        <v>7.83363</v>
+      </c>
+      <c r="G18">
+        <v>47</v>
+      </c>
+      <c r="H18">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>2.6250437</v>
+      </c>
+      <c r="E19">
+        <v>0.8585281</v>
+      </c>
+      <c r="F19">
+        <v>7.298933</v>
+      </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>0.9352578</v>
+      </c>
+      <c r="E20">
+        <v>0.5345337</v>
+      </c>
+      <c r="F20">
+        <v>3.353381</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1.0573671</v>
+      </c>
+      <c r="E21">
+        <v>0.3368169</v>
+      </c>
+      <c r="F21">
+        <v>5.850415</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>1.8584905</v>
+      </c>
+      <c r="E22">
+        <v>0.7632317</v>
+      </c>
+      <c r="F22">
+        <v>3.993184</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>2.8428775</v>
+      </c>
+      <c r="E23">
+        <v>0.8932125</v>
+      </c>
+      <c r="F23">
+        <v>6.882644</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>2.545517</v>
+      </c>
+      <c r="E24">
+        <v>0.8230327</v>
+      </c>
+      <c r="F24">
+        <v>6.769844</v>
+      </c>
+      <c r="G24">
+        <v>39</v>
+      </c>
+      <c r="H24">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1.7251049</v>
+      </c>
+      <c r="E25">
+        <v>0.6152828</v>
+      </c>
+      <c r="F25">
+        <v>5.463176</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I6">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
